--- a/Excel/MAT_STAT/Lab_Work_4.xlsx
+++ b/Excel/MAT_STAT/Lab_Work_4.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\URFU_IENiM(4_course_7_semester)\TerVer\Lab4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\URFU_IENiM4_course_7_semester\TerVer\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27FE0F8-315B-48EB-96FB-64C4BB3EB51F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF4ECC5-C64B-44C6-B475-EBE2F2F95AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E20A4766-8BFB-4D12-A729-76DF5BF32602}"/>
   </bookViews>
   <sheets>
-    <sheet name="Способ 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Способ 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Однофак-й дисперсионный анализ" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="74">
   <si>
     <t>А1</t>
   </si>
@@ -127,9 +126,6 @@
     <t>ХИ2кр</t>
   </si>
   <si>
-    <t>Значит, дисперсии всех групп равны =&gt; нет противоречи с предпосылками факторного анализа</t>
-  </si>
-  <si>
     <t>Y.jср*nj</t>
   </si>
   <si>
@@ -172,9 +168,6 @@
     <t>𝜏i</t>
   </si>
   <si>
-    <t>Значит, фактор влияет на отклик. Т.e продажи зависят от регионов (в каждом из которых рекламная кампания проходила по-разному). Также из параметра 𝜏i можно сделать вывод, что рекламная кампания в рекгионе А1 (где реклама была по центральным каналам) была самой эффективной, а в регионе А3 рекламная кампания (в Интернете) показала результаты ниже среднего.</t>
-  </si>
-  <si>
     <t>Однофакторный дисперсионный анализ</t>
   </si>
   <si>
@@ -251,6 +244,42 @@
   </si>
   <si>
     <t>72% вариации объясняются регионом с соответсвующей рекламной кампанией</t>
+  </si>
+  <si>
+    <t>Гипотезы H0</t>
+  </si>
+  <si>
+    <t>Y.1ср = Y.2ср</t>
+  </si>
+  <si>
+    <t>Y.1ср = Y.3ср</t>
+  </si>
+  <si>
+    <t>Y.2ср = Y.3ср</t>
+  </si>
+  <si>
+    <t>(S^2)ij</t>
+  </si>
+  <si>
+    <t>SQRT</t>
+  </si>
+  <si>
+    <t>tв</t>
+  </si>
+  <si>
+    <t>tкр</t>
+  </si>
+  <si>
+    <t>Вердикт</t>
+  </si>
+  <si>
+    <t>Значит, дисперсии всех групп равны =&gt; нет противоречий с предпосылками факторного анализа</t>
+  </si>
+  <si>
+    <t>Интерпретация: все виды рекламы дают различный эффект</t>
+  </si>
+  <si>
+    <t>Значит, фактор влияет на отклик. Т.e., продажи зависят от регионов (в каждом из которых рекламная кампания проходила по-разному). Также из параметра 𝜏i можно сделать вывод, что рекламная кампания в рекгионе А1 (где реклама была по центральным каналам) была самой эффективной, а в регионе А3 рекламная кампания (в Интернете) показала результаты ниже среднего.</t>
   </si>
 </sst>
 </file>
@@ -474,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,12 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,6 +544,31 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,6 +590,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>492701</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>16100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05ABFD8A-81F7-8622-A77C-C4E70342B832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3346450" y="933450"/>
+          <a:ext cx="4124901" cy="1609950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,17 +958,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A507D6CF-D781-49BC-8DD3-F0AF8F9B0529}">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AD46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
     <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -900,16 +999,16 @@
         <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1050,7 +1149,7 @@
         <v>54</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="15">
         <f>SUM(L2:L4)/C12</f>
@@ -1074,10 +1173,10 @@
         <v>55</v>
       </c>
       <c r="M6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>26</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="16" thickBot="1" x14ac:dyDescent="0.4">
@@ -1087,7 +1186,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="L7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <f>3-1</f>
@@ -1115,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="8">
         <f>M5/M7</f>
@@ -1143,7 +1242,7 @@
         <v>4</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M9" s="18">
         <f>M8/N8</f>
@@ -1167,20 +1266,20 @@
         <v>5</v>
       </c>
       <c r="L10" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="19">
         <f>FINV(0.05,M7,N7)</f>
         <v>3.8852938346523942</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1199,18 +1298,18 @@
       <c r="D11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P11" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
+      <c r="P11" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C12" s="5">
@@ -1220,52 +1319,52 @@
       <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="39"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="39"/>
+      <c r="Y12" s="39"/>
       <c r="AD12" s="20"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="39"/>
+      <c r="V13" s="39"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="39"/>
+      <c r="Y13" s="39"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12">
         <f>L5</f>
         <v>58.733333333333334</v>
       </c>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="39"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="39"/>
+      <c r="Y14" s="39"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
@@ -1293,7 +1392,7 @@
         <v>16</v>
       </c>
       <c r="O15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:30" ht="15.5" x14ac:dyDescent="0.35">
@@ -1329,7 +1428,7 @@
         <v>-0.58935226866683144</v>
       </c>
       <c r="M16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N16">
         <v>4.5166666666666657</v>
@@ -1369,7 +1468,7 @@
         <v>-2.1837978533329054</v>
       </c>
       <c r="M17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>0.76666666666666572</v>
@@ -1409,7 +1508,7 @@
         <v>7.520040629277684</v>
       </c>
       <c r="M18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N18">
         <v>-4.5333333333333314</v>
@@ -1455,7 +1554,7 @@
         <f>E21*H19</f>
         <v>4.2509467229354749</v>
       </c>
-      <c r="M20" s="26">
+      <c r="M20" s="24">
         <f>M5/(M5+N5)</f>
         <v>0.7733946212952798</v>
       </c>
@@ -1479,24 +1578,24 @@
         <f>_xlfn.CHISQ.INV.RT(0.05,2)</f>
         <v>5.9914645471079817</v>
       </c>
-      <c r="M21" s="27" t="s">
+      <c r="M21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="M22" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="N21" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="M22" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.35">
       <c r="G23" s="13" t="s">
@@ -1511,206 +1610,307 @@
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.35">
       <c r="H24" t="s">
-        <v>22</v>
-      </c>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H26" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26" s="39"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27">
+        <f>((A8-1)*A11)/E27+((B8-1)*B11)/E27</f>
+        <v>6.53125</v>
+      </c>
+      <c r="C27">
+        <f>SQRT(B27)</f>
+        <v>2.555631037532609</v>
+      </c>
+      <c r="D27">
+        <f>(A9-B9)/(C27*SQRT(1/A8+1/B8))</f>
+        <v>2.2732056912722474</v>
+      </c>
+      <c r="E27">
+        <f>(A8+B8-2)</f>
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f>_xlfn.T.INV(1-0.05,E27)</f>
+        <v>1.8595480375308975</v>
+      </c>
+      <c r="G27" t="str">
+        <f>IF(ABS(D27) &gt; F27, "средние не равны", "средние равны")</f>
+        <v>средние не равны</v>
+      </c>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28">
+        <f>((A8-1)*A11)/E28+((C8-1)*C11)/E28</f>
+        <v>2.7928571428571427</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C29" si="13">SQRT(B28)</f>
+        <v>1.6711843533426056</v>
+      </c>
+      <c r="D28">
+        <f>(A9-C9)/(C28*SQRT(1/A8+1/C8))</f>
+        <v>8.0726841639373461</v>
+      </c>
+      <c r="E28">
+        <f>(A8+C8-2)</f>
+        <v>7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F29" si="14">_xlfn.T.INV(1-0.05,E28)</f>
+        <v>1.8945786050900069</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ref="G28:G29" si="15">IF(ABS(D28) &gt; F28, "средние не равны", "средние равны")</f>
+        <v>средние не равны</v>
+      </c>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29">
+        <f>((B8-1)*B11)/E29+((C8-1)*C11)/E29</f>
+        <v>4.2555555555555555</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="13"/>
+        <v>2.0628997929021069</v>
+      </c>
+      <c r="D29">
+        <f>(B9-C9)/(C29*SQRT(1/B8+1/C8))</f>
+        <v>4.2428924385324764</v>
+      </c>
+      <c r="E29">
+        <f>(B8+C8-2)</f>
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="14"/>
+        <v>1.8331129326562368</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="15"/>
+        <v>средние не равны</v>
+      </c>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="37">
+        <v>4</v>
+      </c>
+      <c r="C36" s="21">
+        <v>253</v>
+      </c>
+      <c r="D36" s="29">
+        <v>63.25</v>
+      </c>
+      <c r="E36" s="32">
+        <v>5.583333333333333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="21">
+        <v>357</v>
+      </c>
+      <c r="D37" s="29">
+        <v>59.5</v>
+      </c>
+      <c r="E37" s="32">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="38">
+        <v>5</v>
+      </c>
+      <c r="C38" s="22">
+        <v>271</v>
+      </c>
+      <c r="D38" s="35">
+        <v>54.2</v>
+      </c>
+      <c r="E38" s="33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="27">
+        <v>187.88333333333338</v>
+      </c>
+      <c r="C43" s="21">
+        <v>2</v>
+      </c>
+      <c r="D43" s="29">
+        <v>93.941666666666691</v>
+      </c>
+      <c r="E43" s="30">
+        <v>20.47774750227067</v>
+      </c>
+      <c r="F43" s="21">
+        <v>1.3540081684797057E-4</v>
+      </c>
+      <c r="G43" s="26">
+        <v>3.8852938346523942</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="28">
+        <v>55.05</v>
+      </c>
+      <c r="C44" s="21">
+        <v>12</v>
+      </c>
+      <c r="D44" s="29">
+        <v>4.5874999999999995</v>
+      </c>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="22">
+        <v>242.93333333333339</v>
+      </c>
+      <c r="C46" s="22">
+        <v>14</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="P11:Y14"/>
     <mergeCell ref="M22:T22"/>
+    <mergeCell ref="H26:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D9C432-D59B-4C82-957A-7C3EDFD0C95B}">
-  <dimension ref="A1:G15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" customWidth="1"/>
-    <col min="6" max="6" width="17.453125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="23">
-        <v>5</v>
-      </c>
-      <c r="C5" s="23">
-        <v>257</v>
-      </c>
-      <c r="D5" s="23">
-        <v>51.4</v>
-      </c>
-      <c r="E5" s="23">
-        <v>706.30000000000018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23">
-        <v>7</v>
-      </c>
-      <c r="C6" s="23">
-        <v>363</v>
-      </c>
-      <c r="D6" s="23">
-        <v>51.857142857142854</v>
-      </c>
-      <c r="E6" s="23">
-        <v>414.80952380952357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="24">
-        <v>6</v>
-      </c>
-      <c r="C7" s="24">
-        <v>276</v>
-      </c>
-      <c r="D7" s="24">
-        <v>46</v>
-      </c>
-      <c r="E7" s="24">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="23">
-        <v>129.05396825396929</v>
-      </c>
-      <c r="C12" s="23">
-        <v>2</v>
-      </c>
-      <c r="D12" s="23">
-        <v>64.526984126984644</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.13197398698310403</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.87737017011080431</v>
-      </c>
-      <c r="G12" s="23">
-        <v>3.6823203436732408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="23">
-        <v>7334.057142857142</v>
-      </c>
-      <c r="C13" s="23">
-        <v>15</v>
-      </c>
-      <c r="D13" s="23">
-        <v>488.93714285714282</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-    </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="24">
-        <v>7463.1111111111113</v>
-      </c>
-      <c r="C15" s="24">
-        <v>17</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>